--- a/frontend-cemos/public/assets/content/intendencia/3-ema-401/script/m4.xlsx
+++ b/frontend-cemos/public/assets/content/intendencia/3-ema-401/script/m4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,42 +560,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 89</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Segundo Dietrich von Bülow, qual critério distinguia a estratégia da tática no início do século XIX?</t>
+          <t>No contexto do planejamento da Mobilização Marítima, como são tratadas as necessidades identificadas nas Listas de Necessidades (LN) que não podem ser atendidas pela Logística das Forças Singulares?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A distinção entre a concepção política e a execução militar.</t>
+          <t>São descartadas imediatamente, pois a Mobilização trata apenas de recursos financeiros.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O fato de os movimentos ocorrerem fora ou dentro do arco visual recíproco e do efeito do canhão.</t>
+          <t>Tornam-se objeto de estudo da Mobilização, passando a ser consideradas como Carências Logísticas que integrarão a Lista de Carências (LC).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A diferença entre a guerra ofensiva e a guerra defensiva.</t>
+          <t>São transferidas automaticamente para a Lista de Necessidades Atendidas (LNA) para aquisição futura.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A separação entre o comando logístico e o comando operacional.</t>
+          <t>São devolvidas ao Estado-Maior Conjunto das Forças Armadas (EMCFA) para revisão estratégica sem compor novas listas.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bülow definia estratégia como movimentos fora do arco visual e do alcance da artilharia, e tática como a ciência dos movimentos na presença do inimigo.</t>
+          <t>Conforme o **item 4.1**, as necessidades não atendidas pela Logística tornam-se objeto de estudo da Mobilização, consideradas Carências Logísticas que integrarão a Lista de Carências (LC).</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,52 +614,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 90</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qual é a célebre "fórmula" de Clausewitz que define a relação entre guerra e política?</t>
+          <t>Tecnicamente, em que momento se inicia o planejamento da Mobilização no âmbito militar?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A guerra é a negação da política pela violência.</t>
+          <t>Simultaneamente ao início do planejamento da Operação Conjunta.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A guerra é uma simples continuação da política por outros meios.</t>
+          <t>Apenas quando decretada a Mobilização Nacional pelo Presidente da República.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A política cessa quando a guerra começa, dando lugar à estratégia.</t>
+          <t>Após o término do planejamento da Operação Conjunta ou de qualquer outro exercício militar referente a uma Hipótese de Emprego (HE).</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A guerra é um ato puramente militar, independente das relações políticas.</t>
+          <t>Durante a fase de execução da operação militar, quando os recursos logísticos se esgotam.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Clausewitz estabelece que o objetivo político é o móvel inicial e a guerra é um instrumento e uma continuação da política.</t>
+          <t>Nos termos do **item 4.2**, o planejamento da Mobilização se inicia após o término do planejamento da Operação Conjunta ou de exercício militar referente a uma HE.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,52 +668,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 90</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Como o Marechal von Moltke redefiniu a relação entre o governo civil e a condução das operações militares, distanciando-se de Clausewitz?</t>
+          <t>Durante a fase inicial do planejamento da Mobilização Marítima, qual é uma restrição importante quanto à incorporação de ações logísticas?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>O governo civil deve intervir diretamente em todas as fases das operações.</t>
+          <t>A Mobilização deve assumir imediatamente a manutenção dos níveis de estoque de material de toda a Força.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A política e a estratégia devem fundir-se em uma única autoridade civil.</t>
+          <t>Não é possível incorporar ou transferir ações de caráter eminentemente logístico para a responsabilidade da Mobilização, como a manutenção adequada dos níveis de estoque.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O governo civil não intervém na condução das operações militares; a estratégia substitui a política durante as hostilidades.</t>
+          <t>A Mobilização deve focar exclusivamente na obtenção de recursos humanos, deixando os materiais para a logística convencional.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>O chefe do Estado-Maior deve estar subordinado ao Ministro da Guerra em questões táticas.</t>
+          <t>Todas as ações logísticas, sem exceção, são transferidas para a responsabilidade do Sistema de Mobilização Marítima (SIMOMAR).</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Moltke estabeleceu o paradigma de que a política atua antes do conflito, mas deve ceder lugar à independência da estratégia assim que as hostilidades começam.</t>
+          <t>De acordo com o **item 4.2, alínea 'b' (na pág. 45)**, não é possível incorporar ou transferir ações de caráter eminentemente logístico, como a manutenção de estoques, para a Mobilização.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,52 +722,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 91</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qual foi a tese defendida por Ludendorff após a Primeira Guerra Mundial em relação à política e a guerra?</t>
+          <t>Qual Lista de Necessidades é elaborada pelo nível estratégico durante a confecção do Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA)?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A política deve estar a serviço da guerra, pois a guerra é a suprema expressão da vontade da vida racial.</t>
+          <t>Lista de Necessidades Complementar (LNC).</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>As teorias de Clausewitz sobre a primazia da política devem ser mantidas e reforçadas.</t>
+          <t>Lista de Necessidades Suplementar (LNS).</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A condução da guerra deve ser submetida ao controle democrático e ao sufrágio universal.</t>
+          <t>Lista de Necessidades Inicial (LNI).</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A estratégia deve limitar-se estritamente à logística e deixar a política decidir os combates.</t>
+          <t>Lista de Necessidades Final (LNF).</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Ludendorff radicalizou a independência militar, chegando a inverter a lógica de Clausewitz e afirmar que a política deve servir à guerra.</t>
+          <t>Conforme o **item 4.3.1**, a Lista de Necessidades Inicial (LNI) é elaborada pelo nível estratégico durante a confecção do PEECFA.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -776,42 +776,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 91</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Como o General Poirier definiu a "estratégia integral"?</t>
+          <t>Qual característica distingue a Lista de Necessidades Suplementar (LNS), elaborada no nível tático?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Como a ciência da execução tática no campo de batalha.</t>
+          <t>Ela é restrita apenas aos recursos financeiros disponíveis no orçamento anual.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Como a política em ação, ou a ciência e a arte da manobra de forças para cumprir fins políticos.</t>
+          <t>Ela inclui necessidades oriundas de OM de pequeno escalão e não possui restrições de quantidade ou recursos, focando no cumprimento da missão.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Como a substituição da diplomacia pela força bruta.</t>
+          <t>Ela consolida todas as listas anteriores e é elaborada exclusivamente pelo Ministério da Defesa.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Como a gestão exclusiva dos meios logísticos e industriais.</t>
+          <t>Ela reflete apenas as necessidades de deslocamento estratégico, ignorando o apoio de fogo e logística de saúde.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Poirier ampliou o conceito para "estratégia integral", mantendo o princípio de que a estratégia é a política em ação e serve aos seus fins.</t>
+          <t>Conforme o **item 4.3.3**, na LNS não há restrição, todos os recursos podem ser relacionados na quantidade necessária, incluindo necessidades de OM de pequeno escalão.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -830,52 +830,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 92</t>
+          <t>Pág 48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Qual teoria alternativa sobre a distinção entre estratégia e tática foi proposta por autores como Rühle von Lilienstern e o General Bonnal?</t>
+          <t>Quem é responsável por analisar e consolidar as Listas de Necessidades Finais (LNF) e as Listas de Necessidades de Deslocamento Estratégico (LNDE) para gerar a Lista de Necessidades de Planejamento (LNP)?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A estratégia é a arte de conceber e a tática é a ciência da execução.</t>
+          <t>O Estado-Maior da Armada (EMA).</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A estratégia lida com exércitos e a tática lida com batalhões.</t>
+          <t>Os Comandos dos Distritos Navais.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A estratégia é ofensiva e a tática é defensiva.</t>
+          <t>O Estado-Maior Conjunto das Forças Armadas (EMCFA), em conjunto com representantes das Forças Singulares.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A estratégia é imutável e a tática varia conforme a tecnologia.</t>
+          <t>A Secretaria de Produtos de Defesa (SEPROD).</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Esses autores tentaram distinguir os níveis baseando-se na dicotomia entre concepção (estratégia) e execução (tática), e não apenas no combate.</t>
+          <t>Nos termos do **item 4.3.6**, o EMCFA, em conjunto com representantes dos Estados-Maiores das Forças Singulares, analisará e consolidará as listas, resultando na LNP.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,42 +884,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 93</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qual fórmula simples o Almirante Castex adotou para diferenciar estratégia de tática, retomando Jomini?</t>
+          <t>Como devem ser tratadas as novas necessidades que surgem durante a fase de análise e confronto de disponibilidade realizada pelos Órgãos de Direção Setorial (ODS)?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Estratégia é o uso de armas nucleares; tática é o uso de armas convencionais.</t>
+          <t>Devem ser ignoradas para não atrasar o planejamento.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Estratégia é a logística; tática é o movimento.</t>
+          <t>Devem iniciar um novo processo de planejamento do zero.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Estratégia é a guerra aquém e além do combate; tática é durante o combate.</t>
+          <t>Devem receber o mesmo tratamento das demais, com numeração igual à original seguida de uma letra (ex: MB-28A).</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Estratégia é a defesa do território; tática é a invasão do inimigo.</t>
+          <t>Devem ser encaminhadas diretamente ao Ministério da Defesa sem passar pelo ODS.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Castex, seguindo Jomini, situou a tática especificamente no momento do combate, e a estratégia cobrindo toda a guerra antes e depois dele.</t>
+          <t>Conforme o **item 4.4**, as novas necessidades devem ter o mesmo tratamento, recebendo numeração igual à original seguida de uma letra (sequência alfabética).</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -938,52 +938,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 94</t>
+          <t>Pág 50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O termo "tática" deriva do grego *Taxis*. Qual é o significado original deste termo?</t>
+          <t>Ao elaborar sugestões de ações para a Fase de Preparo da Mobilização, por que é vantajoso indicar Produtos Estratégicos de Defesa (PED) de "uso dual"?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Violência e força.</t>
+          <t>Porque são produtos exclusivos para uso militar e garantem sigilo absoluto.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ordem, arranjo e distribuição.</t>
+          <t>Porque são mais baratos, embora tenham qualidade inferior aos produtos civis.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Engano e surpresa.</t>
+          <t>Porque atendem a um mercado maior que o militar, oferecendo melhores condições de produção duradoura e mantendo a indústria civil preparada.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Comando e liderança.</t>
+          <t>Porque sua produção independe da Base Industrial de Defesa (BID).</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A etimologia de tática remete a ordem e arranjo, refletindo a transição do combate heróico individual para a disciplina militar.</t>
+          <t>De acordo com o **item 4.5, alínea 'b' (na pág. 50)**, produtos de uso dual são vantajosos pois atendem a um mercado maior e mantêm a indústria civil preparada.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -992,42 +992,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 94</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O que Napoleão concluiu ao comparar os mamelucos com os soldados franceses?</t>
+          <t>Qual das alternativas abaixo apresenta uma medida que pode ser contemplada nas sugestões de soluções para a Fase de Execução da Mobilização, conforme previsto na Lei nº 11.631/2007?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Que a bravura individual e o equipamento superior dos mamelucos garantiam a vitória sobre os franceses.</t>
+          <t>A dissolução imediata do Congresso Nacional.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Que a tática, a ordem e as evoluções permitiam que um grupo maior de franceses vencesse um grupo maior de mamelucos, apesar da inferioridade individual.</t>
+          <t>A intervenção nos fatores de produção públicos e privados e a requisição de bens e serviços.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Que a cavalaria era obsoleta frente à infantaria, independentemente da tática.</t>
+          <t>A privatização de todas as empresas estatais de defesa.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Que a superioridade numérica era o único fator determinante na batalha.</t>
+          <t>A suspensão total de todos os direitos constitucionais dos cidadãos.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Napoleão usou o exemplo para demonstrar que a tática e a disciplina coletiva superam a bravura e o equipamento individual em grandes números.</t>
+          <t>Conforme o **item 4.5 (lista de medidas na pág. 51)**, as sugestões podem contemplar a intervenção nos fatores de produção e a requisição de bens e serviços.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1046,42 +1046,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>EMA-401</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 95</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>Cap. 4 - Planejamento da Mobilização Marítima</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Como o Barão de Mesnil-Durand definiu a tática no século XVIII?</t>
+          <t>O que assegura a "realimentação do Sistema" de Mobilização Marítima, permitindo que os planos acompanhem as transformações do ambiente?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Como a parte puramente artística e intuitiva da guerra.</t>
+          <t>A rigidez dos planos que impede qualquer alteração após sua aprovação inicial.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Como a ciência de relações, sendo a parte matemática da arte da guerra.</t>
+          <t>A realização de revisões periódicas, exercícios conjuntos e jogos de guerra voltados para a Mobilização.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Como a gestão dos recursos de subsistência das tropas.</t>
+          <t>A extinção das listas de carências após o primeiro ano de vigência do plano.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Como a política aplicada ao campo de batalha.</t>
+          <t>A centralização de todas as decisões no Ministério da Economia, sem consulta às Forças Armadas.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1091,551 +1091,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mesnil-Durand via a tática como uma ciência de medição, cálculo de forças e movimentos, chamando-a de parte matemática da guerra.</t>
+          <t>Nos termos do **item 4.6**, a realimentação é assegurada por revisões periódicas, exercícios conjuntos e jogos de guerra, permitindo um planejamento cíclico.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pág 96</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Qual fator fundamental, destacado pelo Coronel Ardant du Picq, distingue a tática teórica do combate real?</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>A influência das condições meteorológicas.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>O medo e a reação humana, sintetizados na frase "O homem só está apto a uma certa quantidade de terror".</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A qualidade do armamento industrial.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A interferência do poder político nas decisões do comandante.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Ardant du Picq focou nos fatores morais e psicológicos, notando que o combate real envolve o controle do medo e do pânico, ao contrário da teoria pura.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Pág 97</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Qual é a origem etimológica da palavra "logística" segundo Jomini, embora não confirmada por usos antigos?</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Do grego *logisteuo*, que significa administrar.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Do latim *logicus*, referente à razão.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Do cargo de "maréchal général des logis" (marechal de alojamentos).</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Do inglês *logic*, referente à lógica de abastecimento.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Jomini associou a logística à função de alojamento e movimentação de tropas (maréchal des logis), dando-lhe um sentido de estado-maior.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pág 98</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Quando a logística foi verdadeiramente reconhecida como um ramo maior da arte da guerra, com a definição moderna de *logistics*?</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Durante a Primeira Guerra Mundial, pelos alemães.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Durante a Segunda Guerra Mundial, pelos norte-americanos.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Durante as Guerras Napoleônicas, pelos franceses.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Durante a Guerra Fria, pelos soviéticos.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Foi na Segunda Guerra Mundial que os EUA estabeleceram os métodos e o conceito moderno de logística, elevando-a de uma arte "sem glória" para um ramo maior.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pág 99</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Por que a "orgânica" (organização das forças) teve dificuldade em se impor como um ramo autônomo da ciência militar?</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Porque era considerada complexa demais para ser ensinada nas academias.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Porque dependia mais de arbitragens burocráticas e corporativistas entre as armas do que de regras racionais.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Porque Lewal e outros autores proibiram seu estudo.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Porque a organização militar permaneceu inalterada desde o século XVIII.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>O texto explica que o equilíbrio entre as armas resultava de disputas internas e burocracia, dificultando a aceitação da organização como uma ciência racional autônoma.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pág 100</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Qual mudança estrutural nos exércitos do século XIX forçou a ascensão da estratégia e o distanciamento da tática?</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A redução dos efetivos para criar exércitos profissionais menores.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>O crescimento contínuo dos efetivos, exigindo a criação de níveis como corpos de exército e grupos de exércitos.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>A abolição dos estados-maiores.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A eliminação da artilharia como arma decisiva.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>O aumento massivo dos exércitos (centenas de milhares de homens) tornou impossível o comando direto, criando escalões superiores e elevando o nível da estratégia.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pág 101</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Como Liddell Hart definiu a "grande estratégia" em sua obra *Strategy*?</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Como a tática das grandes unidades blindadas.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Como a política de guerra, coordenando todos os recursos da nação para atingir o objetivo político.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Como a estratégia exclusivamente naval e aérea.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Como a substituição da política pela vontade dos generais.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Liddell Hart definiu grande estratégia como a coordenação de todos os recursos nacionais para o fim político, essencialmente "política de guerra".</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pág 102</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Por que os soviéticos recusaram o conceito de "grande estratégia", preferindo distinguir entre política militar e estratégia militar?</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Porque desconheciam os trabalhos de Liddell Hart.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Porque acreditavam que a estratégia não tinha relação com a política.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Para evitar subordinar os fins políticos aos meios e não dividir o poder absoluto do Partido Comunista com especialistas militares.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Porque a língua russa não possuía um termo equivalente.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>A recusa visava manter o primado absoluto da política (o Partido) sobre a esfera militar, evitando que especialistas estratégicos usurpassem o poder decisório.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pág 103</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Quem são considerados os principais teóricos soviéticos responsáveis pela invenção do conceito de "arte operacional" nos anos 1920?</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lênin e Stalin.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Svechin e Triandafillov.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Zhukov e Konev.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Moltke e Ludendorff.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Svechin (que cunhou o termo) e Triandafillov (que escreveu a obra clássica sobre a natureza das operações) são os teóricos centrais da arte operacional soviética.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pág 103</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Qual é a função da "arte operacional" segundo a teoria militar soviética?</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Substituir completamente a estratégia e a tática.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Gerenciar a logística da retaguarda apenas.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Restabelecer a união entre tática e estratégia, conduzindo operações sucessivas para atingir objetivos que uma única batalha não alcança.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Focar exclusivamente no combate de pequenas unidades.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>A arte operacional surgiu porque a extensão das frentes impedia a vitória numa única batalha, exigindo uma corrente de operações para ligar tática e estratégia.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pág 106</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Como o General Iung definiu a tática militar após as contribuições de Lewal?</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Como o conjunto de dispositivos para o emprego judicioso dos homens, meios e ambientes para um propósito imediato.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Como a arte de evitar o combate a todo custo.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Como a ciência exclusiva da artilharia e engenharia.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Como a teoria que ignora o terreno e foca apenas no moral da tropa.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Iung definiu a tática de forma ampla, focando no emprego judicioso de todos os meios para um propósito imediato, indo além do simples choque físico.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
